--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\РФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153E68F-522B-441D-BD2A-3185CAEE5038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -25,24 +26,17 @@
     <sheet name="100₽" sheetId="12" r:id="rId11"/>
     <sheet name="Links" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +101,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -177,12 +171,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -247,12 +241,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -317,12 +311,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -352,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -387,12 +381,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -457,12 +451,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -492,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -527,12 +521,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -562,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -597,12 +591,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -617,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -632,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -667,12 +661,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -687,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -702,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -717,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -737,12 +731,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -757,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -787,7 +781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -807,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="57">
   <si>
     <t>-</t>
   </si>
@@ -983,7 +977,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1254,9 +1248,65 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1496,7 +1546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2053" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="2053" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1539,7 +1595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1592,7 +1654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1645,7 +1713,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1698,7 +1772,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3077" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="3077" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000050C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1741,7 +1821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1794,7 +1880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="1029" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1837,7 +1929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1890,7 +1988,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4101" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="4101" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1933,7 +2037,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1986,7 +2096,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5125" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="5125" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2029,7 +2145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2082,7 +2204,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6149" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="6149" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2125,7 +2253,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2178,7 +2312,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7173" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="7173" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000051C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2221,7 +2361,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2274,7 +2420,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8197" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="8197" name="Rectangle 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2317,7 +2469,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2370,7 +2528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2407,16 +2571,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2718,14 +2882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H1"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3330,25 +3494,21 @@
       <c r="A23" s="9">
         <v>2017</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>0</v>
+      <c r="B23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3401,6 +3561,32 @@
         <v>0</v>
       </c>
       <c r="H25" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3413,12 +3599,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H21">
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H21">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3429,7 +3615,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3441,11 +3649,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3453,7 +3656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3615,7 +3818,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H4">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3630,7 +3833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3651,14 +3854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="E39:F39"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3780,7 +3983,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3795,7 +3998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3816,14 +4019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,12 +4115,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3927,14 +4130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4543,22 +4746,18 @@
       <c r="A23" s="9">
         <v>2017</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>0</v>
+      <c r="B23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -4614,6 +4813,32 @@
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4626,12 +4851,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H21">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H21">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4642,12 +4867,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4666,14 +4908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5532,6 +5774,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -5541,7 +5809,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G19:H32 G3:H17">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5558,7 +5826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5582,14 +5850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6471,6 +6739,32 @@
         <v/>
       </c>
     </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -6480,7 +6774,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:H32">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6497,7 +6791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6514,7 +6808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6569,14 +6863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="A34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7506,6 +7800,34 @@
         <v/>
       </c>
     </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" ref="I34" si="2">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-"),AND(H34&gt;1,H34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -7515,10 +7837,25 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H33">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7537,14 +7874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7648,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I26" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I4:I27" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -8263,6 +8600,34 @@
         <v>0</v>
       </c>
       <c r="I26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8276,6 +8641,18 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8288,6 +8665,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H26">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H25">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8299,16 +8689,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H26">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H25">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -8316,14 +8696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:F5"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8635,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" ref="I11:I33" si="1">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-"),AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I11:I34" si="1">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-"),AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -9265,6 +9645,34 @@
         <v>0</v>
       </c>
       <c r="I33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -9278,6 +9686,28 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:H33">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:H33">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9289,17 +9719,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:H33">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9311,12 +9736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G6:H9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9328,7 +9748,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H9">
+  <conditionalFormatting sqref="G4:H5">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9340,9 +9763,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H5">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -9362,7 +9785,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" text="*-" id="{E9977262-0DF6-4236-8D1E-80CDB77D362D}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{E9977262-0DF6-4236-8D1E-80CDB77D362D}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!G5))))</xm:f>
             <x14:dxf>
               <fill>
@@ -9382,14 +9805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9709,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" ref="I11:I31" si="1">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-"),AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I11:I32" si="1">IF(OR(AND(G11&gt;1,G11&lt;&gt;"-"),AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -10289,6 +10712,34 @@
         <v>0</v>
       </c>
       <c r="I31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -10302,10 +10753,25 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H31">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -10323,7 +10789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10455,7 +10921,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3 G4">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10470,7 +10936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\Russia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153E68F-522B-441D-BD2A-3185CAEE5038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343113C0-F530-452A-BB6E-D3F28E15FF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,18 @@
     <sheet name="100₽" sheetId="12" r:id="rId11"/>
     <sheet name="Links" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1250,14 +1261,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="34">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1306,15 +1318,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2578,9 +2581,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2892,18 +2895,18 @@
       <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="31" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="31" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -2923,7 +2926,7 @@
       </c>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -2945,7 +2948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1997</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1998</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1999</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2000</v>
       </c>
@@ -3050,7 +3053,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2001</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2002</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2003</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2004</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2005</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2006</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2007</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2008</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2009</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2010</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2011</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2012</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2013</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2014</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2015</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2016</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2017</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2018</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2019</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2020</v>
       </c>
@@ -3599,7 +3602,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H21">
-    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3616,7 +3619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3633,7 +3636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3666,18 +3669,18 @@
       <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3700,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -3719,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1992</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1993</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1993</v>
       </c>
@@ -3818,7 +3821,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H4">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3833,7 +3836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3864,18 +3867,18 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -3895,7 +3898,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -3917,7 +3920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1992</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1993</v>
       </c>
@@ -3983,7 +3986,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3998,7 +4001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4029,14 +4032,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4137,21 +4140,21 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="30" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="30" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -4171,7 +4174,7 @@
       </c>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -4193,7 +4196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1997</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1998</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1999</v>
       </c>
@@ -4276,7 +4279,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2000</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2001</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2002</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2003</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2004</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2005</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2006</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2007</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2008</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2009</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2010</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2011</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2012</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2013</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2014</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2015</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2016</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2017</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2018</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2019</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2020</v>
       </c>
@@ -4851,7 +4854,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H21">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4868,7 +4871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4885,7 +4888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4911,25 +4914,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:I33"/>
+      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -4949,7 +4952,7 @@
       </c>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -4971,7 +4974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1991</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1992</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1993</v>
       </c>
@@ -5059,7 +5062,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1994</v>
       </c>
@@ -5089,7 +5092,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1995</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1996</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1997</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1998</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1999</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2000</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2001</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2002</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2003</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2004</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2005</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2006</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2006</v>
       </c>
@@ -5432,7 +5435,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2007</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2008</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2010</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2011</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2012</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2013</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2014</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2015</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2016</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2017</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2018</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2019</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2020</v>
       </c>
@@ -5809,7 +5812,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G19:H32 G3:H17">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5826,7 +5829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5857,21 +5860,21 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:I33"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="24" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="24" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -5891,7 +5894,7 @@
       </c>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -5913,7 +5916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1991</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1992</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1993</v>
       </c>
@@ -6001,7 +6004,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1994</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1995</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1996</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1997</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1998</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1999</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2000</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2001</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2002</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2003</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2004</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2005</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2006</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2006</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2007</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2008</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
@@ -6456,14 +6459,14 @@
         <v>4</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2010</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2011</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2012</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2013</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2014</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2015</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2016</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2017</v>
       </c>
@@ -6679,7 +6682,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2018</v>
       </c>
@@ -6709,7 +6712,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2019</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2020</v>
       </c>
@@ -6774,7 +6777,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:H32">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6791,7 +6794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6808,7 +6811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6873,18 +6876,18 @@
       <selection pane="bottomRight" activeCell="I34" sqref="A34:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="27" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -6904,7 +6907,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -6926,7 +6929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1991</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1992</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1992</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1993</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1994</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1995</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1996</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1997</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1998</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>1999</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2000</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2001</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2002</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2003</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2004</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2005</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2006</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2007</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2008</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2009</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2010</v>
       </c>
@@ -7548,7 +7551,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2011</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2012</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2013</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2014</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2015</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2016</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2017</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2018</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2019</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>2020</v>
       </c>
@@ -7837,7 +7840,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H33">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7852,7 +7855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7884,18 +7887,18 @@
       <selection pane="bottomRight" activeCell="A27" sqref="A27:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="30" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="30" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -7915,7 +7918,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -7937,7 +7940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1997</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1998</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1999</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2000</v>
       </c>
@@ -8045,7 +8048,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2001</v>
       </c>
@@ -8076,7 +8079,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2002</v>
       </c>
@@ -8106,7 +8109,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2003</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2004</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2005</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2006</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2007</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2008</v>
       </c>
@@ -8270,7 +8273,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2009</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2009</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2010</v>
       </c>
@@ -8352,7 +8355,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2011</v>
       </c>
@@ -8380,7 +8383,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2012</v>
       </c>
@@ -8408,7 +8411,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2013</v>
       </c>
@@ -8436,7 +8439,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2014</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2015</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2016</v>
       </c>
@@ -8520,7 +8523,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2017</v>
       </c>
@@ -8548,7 +8551,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2018</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2019</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2020</v>
       </c>
@@ -8665,17 +8668,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H26">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H25">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8706,18 +8709,18 @@
       <selection pane="bottomRight" activeCell="A34" sqref="A34:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="27" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -8737,7 +8740,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -8759,7 +8762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1991</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1992</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1992</v>
       </c>
@@ -8847,7 +8850,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1993</v>
       </c>
@@ -8877,7 +8880,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1994</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1995</v>
       </c>
@@ -8937,7 +8940,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1996</v>
       </c>
@@ -8967,7 +8970,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1997</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1998</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>1999</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2000</v>
       </c>
@@ -9079,7 +9082,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2001</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2002</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2003</v>
       </c>
@@ -9169,7 +9172,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2004</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2005</v>
       </c>
@@ -9229,7 +9232,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2006</v>
       </c>
@@ -9259,7 +9262,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2007</v>
       </c>
@@ -9289,7 +9292,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2008</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
@@ -9341,7 +9344,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2009</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2010</v>
       </c>
@@ -9397,7 +9400,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2011</v>
       </c>
@@ -9425,7 +9428,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2012</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2013</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2014</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2015</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2016</v>
       </c>
@@ -9565,7 +9568,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2017</v>
       </c>
@@ -9593,7 +9596,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2018</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2019</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>2020</v>
       </c>
@@ -9698,12 +9701,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H33">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9720,7 +9723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9749,7 +9752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H5">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9764,7 +9767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -9808,25 +9811,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -9846,7 +9849,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -9868,7 +9871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1991</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1992</v>
       </c>
@@ -9926,7 +9929,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1993</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1994</v>
       </c>
@@ -9986,7 +9989,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1995</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1996</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1997</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1998</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1999</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2000</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2001</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2002</v>
       </c>
@@ -10226,7 +10229,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2003</v>
       </c>
@@ -10256,7 +10259,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2004</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2005</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2006</v>
       </c>
@@ -10346,7 +10349,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2007</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2008</v>
       </c>
@@ -10406,7 +10409,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2009</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2010</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2011</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2012</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2013</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2014</v>
       </c>
@@ -10576,7 +10579,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2015</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2016</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2017</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2018</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2019</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2020</v>
       </c>
@@ -10753,7 +10756,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H31">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -10768,7 +10771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10799,18 +10802,18 @@
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="28" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="5" customWidth="1"/>
+    <col min="10" max="28" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -10830,7 +10833,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
@@ -10852,7 +10855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1992</v>
       </c>
@@ -10882,7 +10885,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1993</v>
       </c>
@@ -10921,7 +10924,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3 G4">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10936,7 +10939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343113C0-F530-452A-BB6E-D3F28E15FF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E1F89-1C44-45D0-BE34-D3BBD91B6EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2180" windowWidth="28800" windowHeight="17740" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -820,9 +820,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -983,6 +980,9 @@
   </si>
   <si>
     <t>50копеек</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -2892,7 +2892,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2911,18 +2911,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -2930,22 +2930,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2953,15 +2953,15 @@
         <v>1997</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="18">
         <v>2</v>
@@ -2979,15 +2979,15 @@
         <v>1998</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="18">
         <v>1</v>
@@ -3005,15 +3005,15 @@
         <v>1999</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
@@ -3031,15 +3031,15 @@
         <v>2000</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="18">
         <v>1</v>
@@ -3058,15 +3058,15 @@
         <v>2001</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
@@ -3084,15 +3084,15 @@
         <v>2002</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
@@ -3110,15 +3110,15 @@
         <v>2003</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="18">
         <v>1</v>
@@ -3136,15 +3136,15 @@
         <v>2004</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="18">
         <v>2</v>
@@ -3162,15 +3162,15 @@
         <v>2005</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="18">
         <v>1</v>
@@ -3188,15 +3188,15 @@
         <v>2006</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="18">
         <v>1</v>
@@ -3214,15 +3214,15 @@
         <v>2007</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="18">
         <v>1</v>
@@ -3240,15 +3240,15 @@
         <v>2008</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="18">
         <v>4</v>
@@ -3266,15 +3266,15 @@
         <v>2009</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -3412,15 +3412,15 @@
         <v>2014</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
@@ -3498,12 +3498,12 @@
         <v>2017</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -3662,11 +3662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3685,18 +3685,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -3704,22 +3704,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3727,19 +3727,19 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3757,19 +3757,19 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -3787,19 +3787,19 @@
         <v>1993</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -3864,7 +3864,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3883,18 +3883,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -3902,22 +3902,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3925,19 +3925,19 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -3955,19 +3955,19 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -4041,13 +4041,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4055,10 +4055,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4066,10 +4066,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4077,10 +4077,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4088,10 +4088,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4099,10 +4099,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4137,10 +4137,10 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E36:E37"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C45:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4159,18 +4159,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -4178,22 +4178,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4201,15 +4201,15 @@
         <v>1997</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -4227,15 +4227,15 @@
         <v>1998</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -4284,15 +4284,15 @@
         <v>2000</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -4310,15 +4310,15 @@
         <v>2001</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -4336,15 +4336,15 @@
         <v>2002</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -4362,15 +4362,15 @@
         <v>2003</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -4388,15 +4388,15 @@
         <v>2004</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -4414,15 +4414,15 @@
         <v>2005</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -4440,15 +4440,15 @@
         <v>2006</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -4466,15 +4466,15 @@
         <v>2007</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -4492,15 +4492,15 @@
         <v>2008</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
         <v>15</v>
@@ -4518,15 +4518,15 @@
         <v>2009</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
@@ -4664,15 +4664,15 @@
         <v>2014</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -4750,12 +4750,12 @@
         <v>2017</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -4914,11 +4914,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4937,18 +4937,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -4956,22 +4956,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4979,17 +4979,17 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -5157,15 +5157,15 @@
         <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -5183,15 +5183,15 @@
         <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>4</v>
@@ -5209,15 +5209,15 @@
         <v>1999</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -5235,15 +5235,15 @@
         <v>2000</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -5261,15 +5261,15 @@
         <v>2001</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -5287,15 +5287,15 @@
         <v>2002</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
         <v>7</v>
@@ -5313,15 +5313,15 @@
         <v>2003</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <v>15</v>
@@ -5339,15 +5339,15 @@
         <v>2004</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
         <v>13</v>
@@ -5365,15 +5365,15 @@
         <v>2005</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
         <v>25</v>
@@ -5391,15 +5391,15 @@
         <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1">
         <v>22</v>
@@ -5417,15 +5417,15 @@
         <v>2006</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
         <v>20</v>
@@ -5440,15 +5440,15 @@
         <v>2007</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
         <v>55</v>
@@ -5466,15 +5466,15 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>90</v>
@@ -5492,15 +5492,15 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1">
         <v>53</v>
@@ -5518,15 +5518,15 @@
         <v>2010</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1">
         <v>29</v>
@@ -5544,12 +5544,12 @@
         <v>2011</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>0</v>
@@ -5570,12 +5570,12 @@
         <v>2012</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>0</v>
@@ -5596,15 +5596,15 @@
         <v>2013</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -5622,12 +5622,12 @@
         <v>2014</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>0</v>
@@ -5648,12 +5648,12 @@
         <v>2015</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -5860,7 +5860,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5879,18 +5879,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -5898,22 +5898,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5921,17 +5921,17 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -6099,15 +6099,15 @@
         <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -6125,15 +6125,15 @@
         <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -6151,15 +6151,15 @@
         <v>1999</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -6237,15 +6237,15 @@
         <v>2002</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -6263,15 +6263,15 @@
         <v>2003</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -6289,15 +6289,15 @@
         <v>2004</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -6315,15 +6315,15 @@
         <v>2005</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -6341,15 +6341,15 @@
         <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -6367,15 +6367,15 @@
         <v>2006</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -6393,15 +6393,15 @@
         <v>2007</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
         <v>7</v>
@@ -6419,15 +6419,15 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
@@ -6445,15 +6445,15 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1">
         <v>4</v>
@@ -6471,15 +6471,15 @@
         <v>2010</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1">
         <v>11</v>
@@ -6497,12 +6497,12 @@
         <v>2011</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>0</v>
@@ -6523,12 +6523,12 @@
         <v>2012</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>0</v>
@@ -6549,15 +6549,15 @@
         <v>2013</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1">
         <v>6</v>
@@ -6575,12 +6575,12 @@
         <v>2014</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>0</v>
@@ -6601,12 +6601,12 @@
         <v>2015</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -6873,7 +6873,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="A34:I34"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6892,18 +6892,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -6911,22 +6911,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6934,17 +6934,17 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -6962,19 +6962,19 @@
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -6992,19 +6992,19 @@
         <v>1992</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -7142,15 +7142,15 @@
         <v>1997</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -7168,15 +7168,15 @@
         <v>1998</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -7194,15 +7194,15 @@
         <v>1999</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -7370,15 +7370,15 @@
         <v>2005</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -7396,15 +7396,15 @@
         <v>2006</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -7422,15 +7422,15 @@
         <v>2007</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -7448,15 +7448,15 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -7474,15 +7474,15 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -7500,17 +7500,17 @@
         <v>2009</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -7528,17 +7528,17 @@
         <v>2010</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -7556,14 +7556,14 @@
         <v>2011</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>0</v>
@@ -7584,14 +7584,14 @@
         <v>2012</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
@@ -7612,17 +7612,17 @@
         <v>2013</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -7640,14 +7640,14 @@
         <v>2014</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -7668,14 +7668,14 @@
         <v>2015</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>0</v>
@@ -7696,14 +7696,14 @@
         <v>2016</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>0</v>
@@ -7724,14 +7724,14 @@
         <v>2017</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>0</v>
@@ -7752,14 +7752,14 @@
         <v>2018</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>0</v>
@@ -7780,14 +7780,14 @@
         <v>2019</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>0</v>
@@ -7808,14 +7808,14 @@
         <v>2020</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>0</v>
@@ -7884,7 +7884,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:I27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7903,18 +7903,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -7922,22 +7922,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7945,15 +7945,15 @@
         <v>1997</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -7971,15 +7971,15 @@
         <v>1998</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -7997,15 +7997,15 @@
         <v>1999</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -8174,15 +8174,15 @@
         <v>2005</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -8200,15 +8200,15 @@
         <v>2006</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -8226,15 +8226,15 @@
         <v>2007</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -8252,15 +8252,15 @@
         <v>2008</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -8278,15 +8278,15 @@
         <v>2009</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -8304,17 +8304,17 @@
         <v>2009</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -8332,17 +8332,17 @@
         <v>2010</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -8360,14 +8360,14 @@
         <v>2011</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>0</v>
@@ -8388,14 +8388,14 @@
         <v>2012</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>0</v>
@@ -8416,17 +8416,17 @@
         <v>2013</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -8444,14 +8444,14 @@
         <v>2014</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>0</v>
@@ -8472,14 +8472,14 @@
         <v>2015</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>0</v>
@@ -8500,14 +8500,14 @@
         <v>2016</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -8528,14 +8528,14 @@
         <v>2017</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>0</v>
@@ -8556,14 +8556,14 @@
         <v>2018</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>0</v>
@@ -8584,14 +8584,14 @@
         <v>2019</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
@@ -8612,14 +8612,14 @@
         <v>2020</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>0</v>
@@ -8706,7 +8706,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:I34"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8725,18 +8725,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -8744,22 +8744,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8767,17 +8767,17 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -8795,19 +8795,19 @@
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -8825,19 +8825,19 @@
         <v>1992</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -8975,15 +8975,15 @@
         <v>1997</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -9001,15 +9001,15 @@
         <v>1998</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -9297,15 +9297,15 @@
         <v>2008</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -9323,15 +9323,15 @@
         <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -9349,17 +9349,17 @@
         <v>2009</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -9377,17 +9377,17 @@
         <v>2010</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -9405,14 +9405,14 @@
         <v>2011</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>0</v>
@@ -9433,14 +9433,14 @@
         <v>2012</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
@@ -9461,17 +9461,17 @@
         <v>2013</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -9489,14 +9489,14 @@
         <v>2014</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -9517,14 +9517,14 @@
         <v>2015</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>0</v>
@@ -9545,14 +9545,14 @@
         <v>2016</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>0</v>
@@ -9573,14 +9573,14 @@
         <v>2017</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>0</v>
@@ -9601,14 +9601,14 @@
         <v>2018</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>0</v>
@@ -9629,14 +9629,14 @@
         <v>2019</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>0</v>
@@ -9657,14 +9657,14 @@
         <v>2020</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>0</v>
@@ -9815,7 +9815,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9834,18 +9834,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -9853,22 +9853,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9876,17 +9876,17 @@
         <v>1991</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -9904,19 +9904,19 @@
         <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -9934,19 +9934,19 @@
         <v>1993</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -10414,17 +10414,17 @@
         <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -10442,17 +10442,17 @@
         <v>2010</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -10470,14 +10470,14 @@
         <v>2011</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -10498,14 +10498,14 @@
         <v>2012</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>0</v>
@@ -10526,17 +10526,17 @@
         <v>2013</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -10584,14 +10584,14 @@
         <v>2015</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>0</v>
@@ -10612,14 +10612,14 @@
         <v>2016</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>0</v>
@@ -10640,14 +10640,14 @@
         <v>2017</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>0</v>
@@ -10668,14 +10668,14 @@
         <v>2018</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>0</v>
@@ -10696,14 +10696,14 @@
         <v>2019</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>0</v>
@@ -10724,14 +10724,14 @@
         <v>2020</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>0</v>
@@ -10799,7 +10799,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10818,18 +10818,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="32"/>
     </row>
@@ -10837,22 +10837,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10860,19 +10860,19 @@
         <v>1992</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -10890,19 +10890,19 @@
         <v>1993</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E1F89-1C44-45D0-BE34-D3BBD91B6EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DB5D6-5132-4141-80F8-49F31BC5A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2180" windowWidth="28800" windowHeight="17740" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="57">
   <si>
     <t>-</t>
   </si>
@@ -2886,13 +2886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3419,13 +3419,13 @@
       <c r="E20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>9</v>
+      <c r="F20" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="10" t="str">
@@ -3590,6 +3590,84 @@
         <v>0</v>
       </c>
       <c r="H26" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3662,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3864,7 +3942,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4029,7 +4107,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4134,13 +4212,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C45:C46"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4671,13 +4749,13 @@
       <c r="E20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>9</v>
+      <c r="F20" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="10" t="str">
@@ -4842,6 +4920,84 @@
         <v>0</v>
       </c>
       <c r="H26" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4912,13 +5068,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5803,6 +5959,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -5811,12 +6045,12 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G19:H32 G3:H17">
+  <conditionalFormatting sqref="G19:H32 G3:H17 G34:H34 G36:H36">
     <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H32 G3:H17">
+  <conditionalFormatting sqref="G19:H32 G3:H17 G34:H34 G36:H36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5854,13 +6088,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6742,7 +6976,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2020</v>
       </c>
@@ -6766,6 +7000,92 @@
       </c>
       <c r="H33" s="21" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" ref="I34" si="1">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-"),AND(H34&gt;1,H34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" ref="I36" si="2">IF(OR(AND(G36&gt;1,G36&lt;&gt;"-"),AND(H36&gt;1,H36&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6776,12 +7096,12 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:H32">
+  <conditionalFormatting sqref="G9:H32 G34:H34 G36:H36">
     <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H32">
+  <conditionalFormatting sqref="G9:H32 G34:H34 G36:H36">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6867,13 +7187,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7828,6 +8148,90 @@
       </c>
       <c r="I34" s="10" t="str">
         <f t="shared" ref="I34" si="2">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-"),AND(H34&gt;1,H34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" ref="I35:I37" si="3">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7854,7 +8258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
+  <conditionalFormatting sqref="G34:H37">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
@@ -7878,13 +8282,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8632,6 +9036,90 @@
       </c>
       <c r="I27" s="10" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" ref="I28:I30" si="1">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-"),AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -8677,7 +9165,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
+  <conditionalFormatting sqref="G27:H30">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
@@ -8700,13 +9188,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9677,6 +10165,90 @@
       </c>
       <c r="I34" s="10" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" ref="I35:I37" si="2">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-"),AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9766,7 +10338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
+  <conditionalFormatting sqref="G34:H37">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
@@ -9809,13 +10381,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10744,6 +11316,90 @@
       </c>
       <c r="I32" s="10" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" ref="I33:I35" si="2">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-"),AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10770,7 +11426,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32">
+  <conditionalFormatting sqref="G32:H35">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DB5D6-5132-4141-80F8-49F31BC5A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB935BA-96B6-44D9-AA0A-3D0EEE3D304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="58">
   <si>
     <t>-</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>100к-200к</t>
   </si>
 </sst>
 </file>
@@ -2892,7 +2895,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3503,7 +3506,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -3744,7 +3747,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4218,7 +4221,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4833,7 +4836,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
@@ -6094,7 +6097,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="G9:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7190,7 +7193,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
@@ -8288,7 +8291,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9194,7 +9197,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10387,7 +10390,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11309,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>0</v>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB935BA-96B6-44D9-AA0A-3D0EEE3D304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC84292-A354-4AB2-A123-264FAC3CFD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28730" windowHeight="19540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -4217,7 +4217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10386,11 +10386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11256,14 +11256,14 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC84292-A354-4AB2-A123-264FAC3CFD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E219E4-A446-4AD1-BCCD-E3D29B01960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28730" windowHeight="19540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="58">
   <si>
     <t>-</t>
   </si>
@@ -1264,15 +1264,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="50">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1522,6 +1521,135 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1547,7 +1675,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1596,7 +1724,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1655,7 +1783,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1714,7 +1842,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1773,7 +1901,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1822,7 +1950,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2205,7 +2333,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2254,7 +2382,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2529,7 +2657,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2584,9 +2712,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="48" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2889,13 +3017,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2953,75 +3081,87 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <v>1997</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="18">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1</v>
+        <v>1991</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <f t="shared" ref="I3:I8" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1998</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="18">
-        <v>1</v>
-      </c>
-      <c r="H4" s="18">
-        <v>1</v>
+        <v>1992</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I22" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="10" t="str">
@@ -3031,51 +3171,58 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1</v>
+        <v>1994</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
+        <v>1995</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3084,24 +3231,28 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1</v>
+        <v>1996</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3110,7 +3261,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>10</v>
@@ -3124,19 +3275,19 @@
         <v>9</v>
       </c>
       <c r="G9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="18">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>10</v>
@@ -3150,19 +3301,19 @@
         <v>9</v>
       </c>
       <c r="G10" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="18">
         <v>1</v>
       </c>
       <c r="I10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <f t="shared" ref="I10:I28" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>10</v>
@@ -3179,16 +3330,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>10</v>
@@ -3208,13 +3359,14 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>10</v>
@@ -3234,13 +3386,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>10</v>
@@ -3254,19 +3406,19 @@
         <v>9</v>
       </c>
       <c r="G14" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" s="18">
         <v>1</v>
       </c>
       <c r="I14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>10</v>
@@ -3280,139 +3432,123 @@
         <v>9</v>
       </c>
       <c r="G15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="18">
         <v>1</v>
       </c>
       <c r="I15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>0</v>
+        <v>2004</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
       </c>
       <c r="I16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>0</v>
+        <v>2005</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1</v>
       </c>
       <c r="I17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>0</v>
+        <v>2006</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1</v>
       </c>
       <c r="I18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>0</v>
+        <v>2007</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1</v>
       </c>
       <c r="I19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>10</v>
@@ -3422,53 +3558,49 @@
       <c r="E20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>0</v>
+      <c r="F20" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
       </c>
       <c r="I20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>0</v>
+        <v>2009</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
       </c>
       <c r="I21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>0</v>
@@ -3485,42 +3617,50 @@
       <c r="F22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21" t="s">
+      <c r="G22" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
-        <v>57</v>
+        <v>2011</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>0</v>
+      <c r="G23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>0</v>
@@ -3537,16 +3677,20 @@
       <c r="F24" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>0</v>
+      <c r="G24" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>0</v>
@@ -3563,42 +3707,46 @@
       <c r="F25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>0</v>
+      <c r="G25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>0</v>
+        <v>2014</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>0</v>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>0</v>
@@ -3615,16 +3763,20 @@
       <c r="F27" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>0</v>
+      <c r="G27" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>0</v>
@@ -3646,31 +3798,187 @@
       </c>
       <c r="H28" s="21" t="s">
         <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
         <v>2023</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21" t="s">
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3682,13 +3990,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H21">
-    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G9:H27">
+    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H21">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="G9:H27">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3699,12 +4007,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H8">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3716,12 +4058,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G3:H3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3741,13 +4083,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="G5:H5"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3805,40 +4147,40 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+        <v>1991</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3:I5" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>39</v>
@@ -3853,13 +4195,13 @@
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I35" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3868,28 +4210,958 @@
         <v>1993</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" ref="I36" si="2">IF(OR(AND(G36&gt;1,G36&lt;&gt;"-"),AND(H36&gt;1,H36&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -3901,9 +5173,56 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H4">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G4:H5">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H17">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -3916,9 +5235,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+  <conditionalFormatting sqref="G18:H35">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:H36">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3939,13 +5273,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4003,28 +5337,28 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+        <v>1991</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="str">
         <f t="shared" ref="I3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -4033,10 +5367,10 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>39</v>
@@ -4051,12 +5385,942 @@
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10" t="str">
+        <f t="shared" ref="I4" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" ref="I6:I35" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-"),AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4066,9 +6330,71 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H5">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H16">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H34">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4081,9 +6407,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G35:H35">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -4215,13 +6541,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4279,59 +6605,67 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <v>1997</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
+        <v>1991</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <f t="shared" ref="I3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1998</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
+        <v>1992</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I22" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I3:I8" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>0</v>
@@ -4355,92 +6689,103 @@
         <v>0</v>
       </c>
       <c r="I5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J5" s="2"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
+        <v>1994</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
+        <v>1995</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>10</v>
@@ -4454,19 +6799,19 @@
         <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>10</v>
@@ -4486,39 +6831,44 @@
         <v>1</v>
       </c>
       <c r="I10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10:I28" si="2">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
+        <v>1999</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>10</v>
@@ -4532,19 +6882,19 @@
         <v>9</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>10</v>
@@ -4558,19 +6908,19 @@
         <v>9</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>10</v>
@@ -4584,19 +6934,19 @@
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Can exchange</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>10</v>
@@ -4610,139 +6960,123 @@
         <v>9</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Can exchange</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
+        <v>2004</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
       </c>
       <c r="I16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
+        <v>2005</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
       </c>
       <c r="I17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
+        <v>2006</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
       </c>
       <c r="I18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
+        <v>2007</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
       </c>
       <c r="I19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>10</v>
@@ -4752,53 +7086,49 @@
       <c r="E20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>0</v>
+      <c r="F20" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
       </c>
       <c r="I20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
+        <v>2009</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
       </c>
       <c r="I21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>0</v>
@@ -4815,42 +7145,50 @@
       <c r="F22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
-        <v>57</v>
+        <v>2011</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>0</v>
@@ -4867,16 +7205,20 @@
       <c r="F24" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>0</v>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>0</v>
@@ -4893,42 +7235,46 @@
       <c r="F25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>0</v>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>0</v>
+        <v>2014</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>0</v>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>0</v>
@@ -4945,16 +7291,20 @@
       <c r="F27" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>0</v>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>0</v>
@@ -4971,36 +7321,192 @@
       <c r="F28" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>0</v>
+      <c r="G28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
         <v>2023</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5012,13 +7518,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H21">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G9:H27">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H21">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G9:H27">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5029,12 +7535,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H8">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5046,12 +7586,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G3:H3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5077,7 +7617,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6049,7 +8589,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G19:H32 G3:H17 G34:H34 G36:H36">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6066,7 +8606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6097,7 +8637,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="G9:H26"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7100,7 +9640,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:H32 G34:H34 G36:H36">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7117,7 +9657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7134,7 +9674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7192,11 +9732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8247,7 +10787,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H33">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8262,7 +10802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H37">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8285,13 +10825,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8349,76 +10889,88 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <v>1997</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+        <v>1991</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I3:I8" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1998</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
+        <v>1992</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I27" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
+        <v>1993</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -8427,7 +10979,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>0</v>
@@ -8457,7 +11009,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>0</v>
@@ -8484,11 +11036,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>0</v>
@@ -8518,67 +11069,59 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
+        <v>1997</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
+        <v>1998</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
       </c>
       <c r="I10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10:I33" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>14</v>
@@ -8591,159 +11134,176 @@
       <c r="F11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
+        <v>2000</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
+        <v>2001</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
+        <v>2002</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
+        <v>2003</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
+        <v>2004</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16" t="s">
         <v>9</v>
@@ -8751,83 +11311,77 @@
       <c r="F17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>0</v>
+      <c r="F18" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
+      <c r="H18" s="1">
+        <v>1</v>
       </c>
       <c r="I18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>0</v>
+      <c r="F19" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
+      <c r="H19" s="1">
+        <v>1</v>
       </c>
       <c r="I19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
         <v>9</v>
@@ -8842,41 +11396,39 @@
         <v>1</v>
       </c>
       <c r="I20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>0</v>
+      <c r="F21" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
+      <c r="H21" s="1">
+        <v>1</v>
       </c>
       <c r="I21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>15</v>
@@ -8888,57 +11440,57 @@
       <c r="E22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>0</v>
+      <c r="F22" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>0</v>
+      <c r="F23" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>0</v>
+      <c r="H23" s="1">
+        <v>1</v>
       </c>
       <c r="I23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
@@ -8954,19 +11506,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
@@ -8982,47 +11534,47 @@
         <v>0</v>
       </c>
       <c r="I25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>0</v>
+      <c r="F26" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>0</v>
+      <c r="H26" s="1">
+        <v>1</v>
       </c>
       <c r="I26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
@@ -9032,25 +11584,25 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
@@ -9060,19 +11612,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="str">
-        <f t="shared" ref="I28:I30" si="1">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-"),AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>15</v>
@@ -9088,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>0</v>
@@ -9100,7 +11652,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>15</v>
@@ -9116,13 +11668,181 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" ref="I34:I36" si="2">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-"),AND(H34&gt;1,H34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9134,7 +11854,44 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H25">
+  <conditionalFormatting sqref="G9:H31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:H32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:H32">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H31">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H36">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9146,7 +11903,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H26">
+  <conditionalFormatting sqref="G4:H8">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9158,20 +11920,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H26">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H25">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H30">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G3:H3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9197,7 +11951,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10276,12 +13030,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H33">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10298,7 +13052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10327,7 +13081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H5">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10342,7 +13096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H37">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10386,11 +13140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11415,7 +14169,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H31">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -11430,7 +14184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H35">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11452,13 +14206,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11516,61 +14270,991 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+        <v>1991</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="str">
-        <f t="shared" ref="I3:I4" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f t="shared" ref="I4:I12" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1994</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" ref="I13:I35" si="2">IF(OR(AND(G13&gt;1,G13&lt;&gt;"-"),AND(H13&gt;1,H13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11582,10 +15266,37 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H3 G4">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G4:H4 G5">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H3">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11597,9 +15308,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H35">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E219E4-A446-4AD1-BCCD-E3D29B01960B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D378B-01B5-4D37-AF81-F3C82A913A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="58">
   <si>
     <t>-</t>
   </si>
@@ -1266,6 +1266,15 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -1640,15 +1649,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2712,9 +2712,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="48" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3991,7 +3991,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:H27">
-    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="18" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4008,7 +4008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4025,7 +4025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4042,7 +4042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H8">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4059,7 +4059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5174,7 +5174,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H5">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -5189,7 +5189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5216,12 +5216,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H17">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5236,7 +5236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H35">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5251,7 +5251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6331,7 +6331,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6346,7 +6346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6373,12 +6373,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H16">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6393,7 +6393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H34">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6408,7 +6408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" ref="I3:I8" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I4:I8" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -7519,7 +7519,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:H27">
-    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7536,7 +7536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7553,7 +7553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7570,7 +7570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H8">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7587,7 +7587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8589,7 +8589,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G19:H32 G3:H17 G34:H34 G36:H36">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8606,7 +8606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9640,7 +9640,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:H32 G34:H34 G36:H36">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9657,7 +9657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9674,7 +9674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9732,7 +9732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10787,7 +10787,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H33">
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -10802,7 +10802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H37">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11879,17 +11879,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:H32">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H31">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H36">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -11904,7 +11904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H8">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11921,7 +11921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13030,12 +13030,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H33">
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13052,7 +13052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13081,7 +13081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H5">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -13096,7 +13096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H37">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -13138,13 +13138,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14160,6 +14160,34 @@
         <v/>
       </c>
     </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" ref="I36" si="3">IF(OR(AND(G36&gt;1,G36&lt;&gt;"-"),AND(H36&gt;1,H36&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -14169,7 +14197,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H31">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -14183,8 +14211,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H35">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G32:H36">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15267,7 +15295,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:H4 G5">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15282,7 +15310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -15309,12 +15337,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H35">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D378B-01B5-4D37-AF81-F3C82A913A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE6B08-24E6-4AC3-913B-A3D4F59CFA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="58">
   <si>
     <t>-</t>
   </si>
@@ -9730,13 +9730,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10775,6 +10775,34 @@
       </c>
       <c r="I37" s="10" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f t="shared" ref="I38" si="4">IF(OR(AND(G38&gt;1,G38&lt;&gt;"-"),AND(H38&gt;1,H38&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -10801,7 +10829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H37">
+  <conditionalFormatting sqref="G34:H38">
     <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
@@ -13140,7 +13168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#Russian_Federation#Regular#[1993-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CE6B08-24E6-4AC3-913B-A3D4F59CFA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD50117-BCE2-408D-B77E-2651FAC506C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1копейка " sheetId="1" r:id="rId1"/>
@@ -3023,7 +3023,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD8"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3510,14 +3510,14 @@
         <v>9</v>
       </c>
       <c r="G18" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="18">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3591,11 +3591,11 @@
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7617,7 +7617,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8205,7 +8205,7 @@
         <v>53</v>
       </c>
       <c r="H22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9736,7 +9736,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10270,14 +10270,14 @@
         <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11979,7 +11979,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13172,7 +13172,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>0</v>
